--- a/eclingo_YBE_600s.xlsx
+++ b/eclingo_YBE_600s.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lutelillo/Desktop/solver_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B61A9B-B1F8-734F-B75A-35FAE6F3A4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEE82F1-A5AE-CD4B-8258-236151FB6378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="337">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1000,27 +1013,6 @@
     <t>eligible/eligible_eligible9968-1.lp</t>
   </si>
   <si>
-    <t>yale_shooting/yale-parameter_yale01.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale02.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale03.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale04.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale05.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale07.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale08.lp</t>
-  </si>
-  <si>
     <t>yale_shooting/yale_yale01.lp</t>
   </si>
   <si>
@@ -1042,28 +1034,16 @@
     <t>yale_shooting/yale_yale08.lp</t>
   </si>
   <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>DST</t>
-  </si>
-  <si>
-    <t>BEST</t>
-  </si>
-  <si>
-    <t>BETTER</t>
-  </si>
-  <si>
-    <t>WORSE</t>
-  </si>
-  <si>
-    <t>WORST</t>
+    <t>Yale Problems - Average</t>
+  </si>
+  <si>
+    <t>Bomb Problems - Average</t>
+  </si>
+  <si>
+    <t>Eligible Problems - Average</t>
+  </si>
+  <si>
+    <t>Total Problems - Average</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F362"/>
+  <dimension ref="A1:F342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A336" sqref="A336:F353"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7860,19 +7840,19 @@
         <v>326</v>
       </c>
       <c r="B322">
-        <v>8.7134000000000003E-2</v>
+        <v>8.9902999999999997E-2</v>
       </c>
       <c r="C322">
-        <v>8.0809000000000006E-2</v>
+        <v>8.9478000000000002E-2</v>
       </c>
       <c r="D322">
-        <v>8.0809000000000006E-2</v>
+        <v>8.9478000000000002E-2</v>
       </c>
       <c r="E322">
-        <v>8.3971500000000004E-2</v>
+        <v>8.9690500000000006E-2</v>
       </c>
       <c r="F322">
-        <v>8.7134000000000003E-2</v>
+        <v>8.9902999999999997E-2</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -7880,19 +7860,19 @@
         <v>327</v>
       </c>
       <c r="B323">
-        <v>8.4626999999999994E-2</v>
+        <v>9.0828999999999993E-2</v>
       </c>
       <c r="C323">
-        <v>8.7402999999999995E-2</v>
+        <v>9.0717999999999993E-2</v>
       </c>
       <c r="D323">
-        <v>8.4626999999999994E-2</v>
+        <v>9.0717999999999993E-2</v>
       </c>
       <c r="E323">
-        <v>8.6014999999999994E-2</v>
+        <v>9.0773499999999993E-2</v>
       </c>
       <c r="F323">
-        <v>8.7402999999999995E-2</v>
+        <v>9.0828999999999993E-2</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -7900,19 +7880,19 @@
         <v>328</v>
       </c>
       <c r="B324">
-        <v>8.7192000000000006E-2</v>
+        <v>9.8225999999999994E-2</v>
       </c>
       <c r="C324">
-        <v>8.8676000000000005E-2</v>
+        <v>9.8158999999999996E-2</v>
       </c>
       <c r="D324">
-        <v>8.7192000000000006E-2</v>
+        <v>9.8158999999999996E-2</v>
       </c>
       <c r="E324">
-        <v>8.7933999999999998E-2</v>
+        <v>9.8192500000000002E-2</v>
       </c>
       <c r="F324">
-        <v>8.8676000000000005E-2</v>
+        <v>9.8225999999999994E-2</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -7920,19 +7900,19 @@
         <v>329</v>
       </c>
       <c r="B325">
-        <v>8.9552999999999994E-2</v>
+        <v>9.2508999999999994E-2</v>
       </c>
       <c r="C325">
-        <v>8.6735000000000007E-2</v>
+        <v>9.5445000000000002E-2</v>
       </c>
       <c r="D325">
-        <v>8.6735000000000007E-2</v>
+        <v>9.2508999999999994E-2</v>
       </c>
       <c r="E325">
-        <v>8.8144E-2</v>
+        <v>9.3977000000000005E-2</v>
       </c>
       <c r="F325">
-        <v>8.9552999999999994E-2</v>
+        <v>9.5445000000000002E-2</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -7940,19 +7920,19 @@
         <v>330</v>
       </c>
       <c r="B326">
-        <v>7.8114000000000003E-2</v>
+        <v>0.107486</v>
       </c>
       <c r="C326">
-        <v>8.7593000000000004E-2</v>
+        <v>0.107198</v>
       </c>
       <c r="D326">
-        <v>7.8114000000000003E-2</v>
+        <v>0.107198</v>
       </c>
       <c r="E326">
-        <v>8.2853499999999997E-2</v>
+        <v>0.10734200000000001</v>
       </c>
       <c r="F326">
-        <v>8.7593000000000004E-2</v>
+        <v>0.107486</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -7960,19 +7940,19 @@
         <v>331</v>
       </c>
       <c r="B327">
-        <v>8.5481000000000001E-2</v>
+        <v>0.47097600000000001</v>
       </c>
       <c r="C327">
-        <v>8.8921E-2</v>
+        <v>0.46053300000000003</v>
       </c>
       <c r="D327">
-        <v>8.5481000000000001E-2</v>
+        <v>0.46053300000000003</v>
       </c>
       <c r="E327">
-        <v>8.7201000000000001E-2</v>
+        <v>0.46575450000000002</v>
       </c>
       <c r="F327">
-        <v>8.8921E-2</v>
+        <v>0.47097600000000001</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -7980,274 +7960,55 @@
         <v>332</v>
       </c>
       <c r="B328">
-        <v>9.0288999999999994E-2</v>
+        <v>0.16045100000000001</v>
       </c>
       <c r="C328">
-        <v>9.1522000000000006E-2</v>
+        <v>0.14507800000000001</v>
       </c>
       <c r="D328">
-        <v>9.0288999999999994E-2</v>
+        <v>0.14507800000000001</v>
       </c>
       <c r="E328">
-        <v>9.09055E-2</v>
+        <v>0.1527645</v>
       </c>
       <c r="F328">
-        <v>9.1522000000000006E-2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+        <v>0.16045100000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
         <v>333</v>
       </c>
-      <c r="B329">
-        <v>8.9902999999999997E-2</v>
-      </c>
-      <c r="C329">
-        <v>8.9478000000000002E-2</v>
-      </c>
-      <c r="D329">
-        <v>8.9478000000000002E-2</v>
-      </c>
-      <c r="E329">
-        <v>8.9690500000000006E-2</v>
-      </c>
-      <c r="F329">
-        <v>8.9902999999999997E-2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+      <c r="B339">
+        <f>AVERAGE(E322:E328)</f>
+        <v>0.15692778571428573</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
         <v>334</v>
       </c>
-      <c r="B330">
-        <v>9.0828999999999993E-2</v>
-      </c>
-      <c r="C330">
-        <v>9.0717999999999993E-2</v>
-      </c>
-      <c r="D330">
-        <v>9.0717999999999993E-2</v>
-      </c>
-      <c r="E330">
-        <v>9.0773499999999993E-2</v>
-      </c>
-      <c r="F330">
-        <v>9.0828999999999993E-2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+      <c r="B340">
+        <f>AVERAGE(E3:E176)</f>
+        <v>561.52001160057478</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
         <v>335</v>
       </c>
-      <c r="B331">
-        <v>9.8225999999999994E-2</v>
-      </c>
-      <c r="C331">
-        <v>9.8158999999999996E-2</v>
-      </c>
-      <c r="D331">
-        <v>9.8158999999999996E-2</v>
-      </c>
-      <c r="E331">
-        <v>9.8192500000000002E-2</v>
-      </c>
-      <c r="F331">
-        <v>9.8225999999999994E-2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+      <c r="B341">
+        <f>AVERAGE(E177:E321)</f>
+        <v>134.24346936896552</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
         <v>336</v>
       </c>
-      <c r="B332">
-        <v>9.2508999999999994E-2</v>
-      </c>
-      <c r="C332">
-        <v>9.5445000000000002E-2</v>
-      </c>
-      <c r="D332">
-        <v>9.2508999999999994E-2</v>
-      </c>
-      <c r="E332">
-        <v>9.3977000000000005E-2</v>
-      </c>
-      <c r="F332">
-        <v>9.5445000000000002E-2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>337</v>
-      </c>
-      <c r="B333">
-        <v>0.107486</v>
-      </c>
-      <c r="C333">
-        <v>0.107198</v>
-      </c>
-      <c r="D333">
-        <v>0.107198</v>
-      </c>
-      <c r="E333">
-        <v>0.10734200000000001</v>
-      </c>
-      <c r="F333">
-        <v>0.107486</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>338</v>
-      </c>
-      <c r="B334">
-        <v>0.47097600000000001</v>
-      </c>
-      <c r="C334">
-        <v>0.46053300000000003</v>
-      </c>
-      <c r="D334">
-        <v>0.46053300000000003</v>
-      </c>
-      <c r="E334">
-        <v>0.46575450000000002</v>
-      </c>
-      <c r="F334">
-        <v>0.47097600000000001</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>339</v>
-      </c>
-      <c r="B335">
-        <v>0.16045100000000001</v>
-      </c>
-      <c r="C335">
-        <v>0.14507800000000001</v>
-      </c>
-      <c r="D335">
-        <v>0.14507800000000001</v>
-      </c>
-      <c r="E335">
-        <v>0.1527645</v>
-      </c>
-      <c r="F335">
-        <v>0.16045100000000001</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>340</v>
-      </c>
-      <c r="B355">
-        <v>600</v>
-      </c>
-      <c r="C355">
-        <v>600</v>
-      </c>
-      <c r="D355">
-        <v>600</v>
-      </c>
-      <c r="E355">
-        <v>600</v>
-      </c>
-      <c r="F355">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>341</v>
-      </c>
-      <c r="B356">
-        <v>365.03108870085498</v>
-      </c>
-      <c r="C356">
-        <v>366.18973423931601</v>
-      </c>
-      <c r="D356">
-        <v>364.292629846154</v>
-      </c>
-      <c r="E356">
-        <v>365.61041147008501</v>
-      </c>
-      <c r="F356">
-        <v>366.92819309401699</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>342</v>
-      </c>
-      <c r="B357">
-        <v>287.24631611993101</v>
-      </c>
-      <c r="C357">
-        <v>288.280396441964</v>
-      </c>
-      <c r="D357">
-        <v>287.12069441453599</v>
-      </c>
-      <c r="E357">
-        <v>287.72743365890398</v>
-      </c>
-      <c r="F357">
-        <v>288.400641579926</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>343</v>
-      </c>
-      <c r="B358">
-        <v>100.66899029505799</v>
-      </c>
-      <c r="C358">
-        <v>140.19134710201601</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>344</v>
-      </c>
-      <c r="B359">
-        <v>172</v>
-      </c>
-      <c r="C359">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>345</v>
-      </c>
-      <c r="B360">
-        <v>172</v>
-      </c>
-      <c r="C360">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>346</v>
-      </c>
-      <c r="B361">
-        <v>179</v>
-      </c>
-      <c r="C361">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>347</v>
-      </c>
-      <c r="B362">
-        <v>179</v>
-      </c>
-      <c r="C362">
-        <v>172</v>
+      <c r="B342">
+        <f>AVERAGE(E3:E328)</f>
+        <v>359.41988825613515</v>
       </c>
     </row>
   </sheetData>
